--- a/项目管理/进度计划/Demo-里程碑4/Demo-里程碑4计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑4/Demo-里程碑4计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="33600" windowHeight="19580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="4680" yWindow="460" windowWidth="36420" windowHeight="19580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑4" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,9 @@
 必须 被动技能-触发条件配置表
 必须 被动技能-延长当前回合时间
 超额 被动技能-技能buff配置表修改
-超额 被动技能-新增buff可提升属性</t>
+超额 被动技能-新增buff可提升属性
+新增 被动技能-effect增加命中关联
+新增 被动技能-反伤</t>
         </r>
       </text>
     </comment>
@@ -75,74 +77,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="723">
   <si>
     <t>分类</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>里程碑完成度</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>数值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>在每个里程碑或者周版本内，根据工作侧重方向以及时间限制再做调整。如果有时间赶不上的情况，可能需要安排其他人员辅助主要人员的工作。</t>
@@ -173,83 +175,83 @@
   </si>
   <si>
     <t>第一次开三方之后开始进行</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>5、美术需求需要开三方，拆分任务，时间预估</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2、三方，任务细分，时间预估</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1）策划是否可以直接查看代码？提交权限限制到资源和配置？</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划需要修改内容，提交需要遵循第7条规则</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">必须完成 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>底线目标</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">美术 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>超额任务</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>完成级别说明</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>策划验收</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>负责策划验收， 保证一致性和完整性，策划内部体验，有配置内容的功能，产出配置说明和测试数据， 意见收集。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>按原来需求主要Bug解决</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>集体测试</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
@@ -259,7 +261,7 @@
     <rPh sb="2" eb="3">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
@@ -269,7 +271,7 @@
     <rPh sb="2" eb="3">
       <t>qian</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
@@ -279,7 +281,7 @@
     <rPh sb="2" eb="3">
       <t>kai'fa</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>策划设计文档完成，主策划验收通过</t>
@@ -304,7 +306,7 @@
     <rPh sb="14" eb="15">
       <t>tong'guo</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>程序任务完成，主程验收通过，可以提交策划验收</t>
@@ -338,14 +340,14 @@
     <rPh sb="20" eb="21">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
     <rPh sb="0" eb="1">
       <t>qi't</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
@@ -355,14 +357,14 @@
     <rPh sb="2" eb="3">
       <t>xiang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>标准项</t>
     <rPh sb="2" eb="3">
       <t>xiang'mu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序文档</t>
@@ -372,7 +374,7 @@
     <rPh sb="2" eb="3">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
@@ -382,7 +384,7 @@
     <rPh sb="2" eb="3">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>开发流程广播，明确</t>
@@ -398,11 +400,11 @@
     <rPh sb="7" eb="8">
       <t>ming'que</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1、项目方向确定下来后，每个leader规划一下组内分工，确定一下各组员的主要负责模块以及辅助负责内容。让每个人对自己未来的工作可以有一个规划和计划，明确方向的侧重点。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>关于任务审核，各组Leader的方式和执行力度把控，问题由下游组进行反馈</t>
@@ -454,7 +456,7 @@
     <rPh sb="34" eb="35">
       <t>fan'kui</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对于任务分配时间以及完成标准，需要组员和leader之间多沟通以达到高效高质量完成任务的目标</t>
@@ -518,7 +520,7 @@
     <rPh sb="44" eb="45">
       <t>mu'b</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑1总结问题回顾：</t>
@@ -534,14 +536,14 @@
     <rPh sb="8" eb="9">
       <t>hui'gu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>有部分执行了，需要继续监管（Leader）</t>
   </si>
   <si>
     <t>7、svn提交内容需要有对应的任务或bug单号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增v0.2版本对局设计*3，用于集体体验v0.2版本的游戏内容。</t>
@@ -578,7 +580,7 @@
     <rPh sb="30" eb="31">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>问题总结：</t>
@@ -588,11 +590,11 @@
     <rPh sb="2" eb="3">
       <t>zong'jie</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">9、 有关项目进展的情况，可以随时广播给大家 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划文档分析完成，问题解决，达到三方前状态</t>
@@ -623,28 +625,28 @@
     <rPh sb="19" eb="20">
       <t>zhuang'tai</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
     <rPh sb="0" eb="1">
       <t>dui'ju</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
     <rPh sb="0" eb="1">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
     <rPh sb="0" eb="1">
       <t>feng'wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内容项</t>
@@ -654,21 +656,21 @@
     <rPh sb="2" eb="3">
       <t>xiang'mu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
     <rPh sb="0" eb="1">
       <t>gong'neng'xiang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>全员测试，Bug解决，收集反馈意见， 解决明显阻外， V0.7拿出手。</t>
     <rPh sb="31" eb="32">
       <t>na'chu'shou</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>另外阻碍的内容还有游戏原型设计，商业模型设计，部分统设计文档，如：背包，宠物，邮箱，好友，疲劳值等</t>
@@ -678,7 +680,7 @@
     <rPh sb="48" eb="49">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>超额任务副本基础功能已达到三方前状态，程序初步估时完成，该功能取消故相关工作取消。</t>
@@ -745,7 +747,7 @@
     <rPh sb="38" eb="39">
       <t>qu'xiao</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>任务整体完成率并不是很好，一方面由于项目转方向导致部分工作阻碍，另一方面也体现出工作计划规划还是有很大偏差，对于任务制作时间预估偏理想，策划验收跟进部分时间未预留充分。</t>
@@ -869,7 +871,7 @@
     <rPh sb="81" eb="82">
       <t>chong'fen</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>关于早会：如果Leader请假，Leader远程安排好组员工作，组员在微信群通报任务接进度，以便Leader把控任务进展</t>
@@ -930,7 +932,7 @@
     <rPh sb="58" eb="59">
       <t>jin'zhan</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>各位Leader及时跟进组员的工作进展，站会前提前收集问题和任务状态，站会后问题及时跟进解决</t>
@@ -997,7 +999,7 @@
     <rPh sb="44" eb="45">
       <t>jie'jue</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>主要了解周版本流程，功能开发流程</t>
@@ -1022,7 +1024,7 @@
     <rPh sb="14" eb="15">
       <t>liu'cheng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美术资源流程确认，svn提交权限明确（会议中大概浏览一下原流程，会后讨论我们自己的流程）</t>
@@ -1086,7 +1088,7 @@
     <rPh sb="41" eb="42">
       <t>liu'cheng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Jira养成操作习惯，很多”死板的工作“就可以省略，也可以节约一些沟通成本</t>
@@ -1135,7 +1137,7 @@
     <rPh sb="35" eb="36">
       <t>cheng'ben</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>其他问题：</t>
@@ -1145,7 +1147,7 @@
     <rPh sb="2" eb="3">
       <t>wen't</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1185,7 +1187,7 @@
     <rPh sb="32" eb="33">
       <t>tong'guo</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>美术风格确认-UI</t>
@@ -1198,7 +1200,7 @@
     <rPh sb="4" eb="5">
       <t>que'ren</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8月5日</t>
@@ -1208,7 +1210,7 @@
     <rPh sb="3" eb="4">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8月12日</t>
@@ -1218,7 +1220,7 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8月19日</t>
@@ -1228,7 +1230,7 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8月26日</t>
@@ -1238,7 +1240,7 @@
     <rPh sb="4" eb="5">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>9月2日</t>
@@ -1248,11 +1250,11 @@
     <rPh sb="3" eb="4">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>4W1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>4W2</t>
@@ -1271,7 +1273,7 @@
     <rPh sb="0" eb="1">
       <t>f'b</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>UI制作-其他？</t>
@@ -1281,14 +1283,14 @@
     <rPh sb="5" eb="6">
       <t>qi't</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
     <rPh sb="0" eb="1">
       <t>mei'shu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美术资源提交流程</t>
@@ -1304,7 +1306,7 @@
     <rPh sb="6" eb="7">
       <t>liu'cheng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本结算</t>
@@ -1314,14 +1316,14 @@
     <rPh sb="2" eb="3">
       <t>jie'suan</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
     <rPh sb="0" eb="1">
       <t>chogn'wu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内容项</t>
@@ -1331,7 +1333,7 @@
     <rPh sb="2" eb="3">
       <t>xiang'mu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩家测试环境准备（如：宠物属性、技能配置之类）</t>
@@ -1365,7 +1367,7 @@
     <rPh sb="20" eb="21">
       <t>zhi'lei</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1405,7 +1407,7 @@
     <rPh sb="35" eb="36">
       <t>d</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1433,7 +1435,7 @@
     <rPh sb="25" eb="26">
       <t>ti'jiao</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局-UI资源</t>
@@ -1443,30 +1445,30 @@
     <rPh sb="5" eb="6">
       <t>zi'yaun</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
     <rPh sb="0" eb="1">
       <t>te'x</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>原型文字版</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>原型演示版</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>魔灵分析报告</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>第3章副本设计</t>
@@ -1482,7 +1484,7 @@
     <rPh sb="6" eb="7">
       <t>wen'dangpei'zhicheng'xuce'shi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>第7章副本设计</t>
@@ -1495,23 +1497,23 @@
     <rPh sb="3" eb="4">
       <t>fu'b</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>状态机生成工具</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，7-1~7-3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，7-5~7-7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备基础界面</t>
@@ -1521,71 +1523,71 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备强化界面</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备宝石界面/镶嵌界面</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面评审及反馈</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>道具宝石合成界面</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>道具合成界面评审及反馈</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>“时光之穴”（暂名）玩法设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>属性，技能战力比定义，技能价值定义</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>体验数值设计-普通本（数值模拟）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>体验数值设计-boss（数值模拟）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>时光之穴-经验/金钱数值模型设计（选取动态或者静态模型）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>投放数值计算</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>投放模型设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1601,7 +1603,7 @@
       </rPr>
       <t>ay3</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1617,62 +1619,62 @@
       </rPr>
       <t>ay4</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本体验</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day1，封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day3，封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day3，封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
     <rPh sb="2" eb="3">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划文档</t>
@@ -1682,59 +1684,59 @@
     <rPh sb="2" eb="3">
       <t>kai'fa</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>森林</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>冥河</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>森林</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>冥河</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景性能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D+动作</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3周</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>风格</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局UI</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>排一下能做几个</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局外界面</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
@@ -1744,11 +1746,11 @@
   </si>
   <si>
     <t>确认哪周能给多少美术资源</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1764,11 +1766,11 @@
       </rPr>
       <t>A测试</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划验收</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1826,7 +1828,7 @@
     <rPh sb="8" eb="9">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1848,82 +1850,82 @@
     <rPh sb="5" eb="6">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>装备基础界面评审</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩法</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>特效制作</t>
     <rPh sb="0" eb="1">
       <t>te'xiao</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day1，封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备装备界面（装备穿脱，不含指引）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>装备数据结构，icon，tips</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day3，封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局-大招、换怪冲突问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>大招-法阵表现形式优化</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day3，封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能-驱散；被动技能-开场释放被动技能；
@@ -1938,7 +1940,7 @@
     <rPh sb="5" eb="6">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能-被动技能-buff并存、替代规则；
@@ -1954,7 +1956,7 @@
     <rPh sb="5" eb="6">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能-被动技能-减伤护盾；
@@ -1969,78 +1971,78 @@
     <rPh sb="5" eb="6">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内容项</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>标准项</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内容项</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内容项</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>策划验收</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
     <rPh sb="0" eb="1">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Loading界面</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>更新服务器搭建</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>推送功能研究</t>
@@ -2053,7 +2055,7 @@
     <rPh sb="2" eb="3">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
@@ -2063,78 +2065,78 @@
     <rPh sb="2" eb="3">
       <t>zi'zhu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱-服务器</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>热更新功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>FaceBookSDK学习</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>逻辑配置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，boss技能，被动技能tips显示规则</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划配置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D-模型</t>
   </si>
   <si>
     <t>3D-模型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D-贴图</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D-模型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>w1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>w2</t>
@@ -2147,175 +2149,175 @@
   </si>
   <si>
     <t>7.30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美杜莎，冥河娃娃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8.5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Boss：落新妇，凯瑞斯</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Boss：美杜莎，冥河娃娃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：苗娃，Momo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8.8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8.10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景：冥河-第四关</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D-模型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8.12</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作（8月31日）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>提交规范确认</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局UI资源（8.16）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>豆豆</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8.15</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>哈皮</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8.19</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>提交规范</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>8.22</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>皮影，女妖-头</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>女妖-身，冰岩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>UI风格</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>原画/发包时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Boss：落新妇，凯瑞斯</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D-贴图</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：狼人，阿穆特，蜥蜴人，安普沙</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Boss：美杜莎，冥河娃娃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作（24日）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作（8月31日）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：水中少女</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：皮影，女妖，冰岩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景：冥河-第四关</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景：森林-第四关</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景：森林-第四关</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>原画</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2331,349 +2333,349 @@
       </rPr>
       <t>D-测试版</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>资源</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美术资源</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美术资源</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>W1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>W2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>W3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>W4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>W5</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>辛</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本玩法设计范围</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本设计范围分享</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>原型文字版</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本具体内容设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>魔灵产出分析</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突解决</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>原型演示版</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>状态机生成工具验收</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-络新妇</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-络新妇（逻辑）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，boss络新妇</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，3-1~3-3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，3-1~3-3（逻辑）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，3-1~3-3（表现）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，3-1~3-3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>胖</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效逻辑</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效逻辑验收</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>目录结构，资源存放规则，提交流程</t>
   </si>
   <si>
     <t>宠物UI-装备基础界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备基础界面，评审</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备基础界面，装备界面封文档</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备装备界面（装备穿脱）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备装备界面（装备穿脱），评审</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备强化界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备强化界面，评审</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备强化，镶嵌宝石封文档</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备宝石界面/镶嵌界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备宝石界面/镶嵌界面，评审</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面评审及反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>道具合成界面</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>道具合成界面及反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-美杜莎</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-美杜莎（逻辑）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-美杜莎（表现）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，boss美杜莎</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，3-5~3-7</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，3-5~3-7（逻辑）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，3-5~3-7（表现）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，3-5~3-7</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对局UI配置（新资源）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>对局UIDebug</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本体验调试</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>后续副本设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置-boss-冥河娃娃（逻辑）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置-boss-冥河娃娃（表现）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，boss冥河娃娃</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，7-5~7-7（逻辑）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，7-5~7-7（表现）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，7-5~7-7</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-阿穆特</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，boss阿穆特</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-阿穆特（表现）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>时光之穴玩法预研</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>时光之穴玩法文档</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>时光之穴玩法文档反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>时光之穴副本内容设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>boss降临玩法（考虑社交）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>boss降临玩法内容设计3~5boss</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>星</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>日常活动时间分布</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>属性，技能战力比定义，技能价值定义</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>属性成长数值拆分/战力定义</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装备-icon，tips</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>体验数值设计-普通本（数值模拟）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>体验数值设计-boss（数值模拟）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>测试数据配置</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>时光之穴-经验/金钱数值模型设计（选取动态或者静态模型）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>投放数值计算</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>被动技能验收</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，7-1~7-3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，7-1~7-3</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，boss技能，被动技能tips显示规则</t>
   </si>
   <si>
     <t>备注：</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>M4W1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>M4W2</t>
@@ -2689,236 +2691,236 @@
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>被动技能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>热更新研究</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>热更新制作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>被动技能debug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>更新功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，boss、被动技能tips</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>技能tipsDebug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>FaceBookSDK学习</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>战斗AIDebug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>充值接口研究（GooglePlay，IOS）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备三方</t>
   </si>
   <si>
     <t>装备tips，icon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备相关Debug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Loading界面</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备强化，宝石镶嵌三方</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备强化，进阶</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备基础1.5</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-宝石镶嵌</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备穿脱</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面debug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>协助宠物界面开发</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>更新服务器搭建</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>邮箱服务器</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>服务器-装备强化升级，进阶</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>装备数据结构，配表更新</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>服务器-装备强化升级，进阶数据结构，配置表</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>推送功能研究</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>服务器-宠物界面-装备基础</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>宝石数据结构，配表</t>
   </si>
   <si>
     <t>服务器-宠物界面-装备穿脱</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>w5</t>
   </si>
   <si>
     <t>M4W1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>M3W5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：哈皮，哇鬼</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：皮影，女妖，冰岩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：温迪戈，狸，梦魇</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>哇鬼</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局UI（8.16），狸，梦魇</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-络新妇（表现）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>逻辑配置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>逻辑配置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>表现配置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>表现配置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>被动技能验收</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发，用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发（待需求确认），用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备基础界面文档分析</t>
@@ -2928,46 +2930,46 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备装备界面文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能-驱散；被动技能-开场释放被动技能；
 区分对局一开始释放一次被动，换上阵不释放；
 增加buff伤害反应
 功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效逻辑文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜剩余内容用例修改</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>装备数据结构，icon，tips文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备强化界面文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备宝石界面/镶嵌界面文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI设计文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能-被动技能-buff并存、替代规则；
@@ -2975,19 +2977,19 @@
 嘲讽；
 吸收护盾UI表现，伤害公式，3D受击
 功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，boss技能，被动技能tips显示规则文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜剩余内容功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局-大招、换怪冲突问题文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备基础界面用例设计</t>
@@ -2997,38 +2999,38 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备装备界面用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>装备数据结构，icon，tips用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能-被动技能-减伤护盾；
 击晕，打断，表现；
 触发条件配置表；
 功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>第7章副本设计文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>第3章副本设计文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>第3章副本用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>第7章副本用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备基础界面功能测试</t>
@@ -3038,239 +3040,239 @@
     <rPh sb="2" eb="3">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备装备界面功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>装备数据结构，icon，tips功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备强化界面用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备宝石界面/镶嵌界面用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，boss技能，被动技能tips显示规则功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局-UI配置（血条，大招，主UI，伤害数字）功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备强化界面功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备宝石界面/镶嵌界面功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，3-1~3-3(逻辑配置前置状态机/表现配置前置美术资源，下同）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-络新妇</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-络新妇逻辑测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置-boss-冥河娃娃</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置-boss-冥河娃娃逻辑测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，3-5~3-7</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-美杜莎</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-阿穆特</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-美杜莎表现测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置-boss-冥河娃娃表现测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本内容用例模板设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ios兼容性测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战前布怪策略乐趣</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战中策略：</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对应敌方属性</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对应敌方技能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>看时机使用自己技能：大招，被动</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>打断大招：集火打断，物理大招</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>搜索隐藏要点：隐藏怪，隐藏弱点</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Boss打法研究：优先rushboss还是击破弱点，体现boss的丰富性</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>两种</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本节奏：大中小三种boss时间玩家感受测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试内容：</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>体现乐趣：</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">其他测试需求： </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局操作体验：照妖镜，集火，大招，换怪</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配2个小怪副本（怪物动作等资源回来后配置）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配2个小怪副本（怪物动作等资源回来后配置）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>协助宠物界面开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本结算（w3）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>命名规范</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>命名规范</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本表现配置验收</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>好友文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱文档提qc+评审</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>封文档</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱三方</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>结算文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>背包文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2个小怪副本表现测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2个小怪副本逻辑测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本debug</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-列表，详细信息，技能升级，进阶</t>
@@ -3298,7 +3300,7 @@
     <rPh sb="18" eb="19">
       <t>jin'jie</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序配置跟进</t>
@@ -3311,7 +3313,7 @@
     <rPh sb="9" eb="10">
       <t>gen'jin</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>待排期</t>
@@ -3321,7 +3323,7 @@
     <rPh sb="1" eb="2">
       <t>pai'qi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>确定风格</t>
@@ -3331,7 +3333,7 @@
     <rPh sb="2" eb="3">
       <t>feng'ge</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配2个小怪副本（剩余内容）</t>
@@ -3341,14 +3343,14 @@
     <rPh sb="10" eb="11">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>QA测试</t>
     <rPh sb="2" eb="3">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
@@ -3358,21 +3360,21 @@
     <rPh sb="2" eb="3">
       <t>kai'fa</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>社交</t>
     <rPh sb="0" eb="1">
       <t>she'jiao</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>服务器接口研究</t>
@@ -3385,18 +3387,18 @@
     <rPh sb="5" eb="6">
       <t>yan'jiu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>逻辑配置</t>
   </si>
   <si>
     <t>表现配置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>逻辑配置，表现配置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划验收</t>
@@ -3406,14 +3408,14 @@
     <rPh sb="2" eb="3">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
     <rPh sb="0" eb="1">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>邮箱文档，副本结算文档，背包文档</t>
@@ -3438,7 +3440,7 @@
     <rPh sb="14" eb="15">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>UI风格定案，场景制作方法定案。两章副本美术资源（所有角色+两个场景）</t>
@@ -3478,7 +3480,7 @@
     <rPh sb="32" eb="33">
       <t>chang'jing</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>游戏原型（文字版），副本数值，投放数值</t>
@@ -3500,7 +3502,7 @@
     <rPh sb="17" eb="18">
       <t>shu'zhi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>策划配置</t>
@@ -3510,7 +3512,7 @@
     <rPh sb="2" eb="3">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3526,56 +3528,56 @@
       </rPr>
       <t>I音效）</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>属性成长数值拆分/战力定义</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>充值接口研究（GooglePlay，IOS）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>命名规范</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>目录结构，资源存放规则，提交流程</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>属性、战力分配审核</t>
     <rPh sb="7" eb="8">
       <t>shen'he</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>结算审核</t>
     <rPh sb="2" eb="3">
       <t>shen'he</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置-boss-冥河娃娃（逻辑）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
     <rPh sb="0" eb="1">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面交接（列表，详情，技能，进阶）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>被动技能用例设计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-技能升级，进阶测试，复查bug</t>
@@ -3585,7 +3587,7 @@
     <rPh sb="15" eb="16">
       <t>fu'cha</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>美术资源测试跟进</t>
@@ -3601,11 +3603,11 @@
     <rPh sb="6" eb="7">
       <t>gen'jin</t>
     </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜剩余内容文档分析</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜三方</t>
@@ -3615,7 +3617,7 @@
     <rPh sb="3" eb="4">
       <t>san'fang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效三方</t>
@@ -3628,29 +3630,29 @@
     <rPh sb="4" eb="5">
       <t>san'fang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>投放模型设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>投放数值审核</t>
     <rPh sb="4" eb="5">
       <t>shen'he</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本数值审核</t>
     <rPh sb="4" eb="5">
       <t>shen'he</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>特效-第1批</t>
@@ -3663,7 +3665,7 @@
     <rPh sb="5" eb="6">
       <t>pi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>特效-第2批</t>
@@ -3676,93 +3678,93 @@
     <rPh sb="5" eb="6">
       <t>pi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>2个小怪副本逻辑测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI设计</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突解决</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>背包审核</t>
     <rPh sb="2" eb="3">
       <t>shen'he</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>背包（w2）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>背包文档提qc</t>
     <rPh sb="2" eb="3">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>结算界面文档，评审</t>
     <rPh sb="4" eb="5">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效逻辑验收</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜验收，界面配置</t>
     <rPh sb="3" eb="4">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-阿穆特（逻辑）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本配置：4个boss局+6个小怪局</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜Debug</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>配2个小怪副本（怪物动作等资源回来后配置）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-阿穆特逻辑测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，boss技能，被动技能tips显示规则（D3），封文档</t>
     <rPh sb="31" eb="32">
       <t>feng'wen'dang</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本表现配置验收</t>
   </si>
   <si>
     <t>村落和/或宠物展现形式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备基础界面，装备界面验收</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
@@ -3775,19 +3777,19 @@
     <rPh sb="2" eb="3">
       <t>qian</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>评审，三方前</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI调整</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-美杜莎逻辑测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI用例设计</t>
@@ -3800,7 +3802,7 @@
     <rPh sb="6" eb="7">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本结算文档回归跟进</t>
@@ -3822,7 +3824,7 @@
     <rPh sb="9" eb="10">
       <t>jin</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>背包文档回归跟进</t>
@@ -3838,25 +3840,25 @@
     <rPh sb="6" eb="7">
       <t>gen'jin</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-络新妇表现测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI测试</t>
     <rPh sb="4" eb="5">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能tips，boss技能，被动技能tips显示规则功能用例</t>
     <rPh sb="28" eb="29">
       <t>yong'li</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>被动技能复查bug</t>
@@ -3869,29 +3871,29 @@
     <rPh sb="4" eb="5">
       <t>fu'cha</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局-大招、换怪冲突问题用例修改</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对局-大招、换怪冲突问题测试</t>
     <rPh sb="12" eb="13">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>特效整理发包</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>副本配置debug</t>
     <rPh sb="2" eb="3">
       <t>pei'zh</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>邮箱界面？</t>
@@ -3901,18 +3903,18 @@
     <rPh sb="2" eb="3">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>FaceBookSDK学习</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>大招、换怪冲突解决验收</t>
     <rPh sb="9" eb="10">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>战斗AI验收</t>
@@ -3922,7 +3924,7 @@
     <rPh sb="4" eb="5">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>技能tips验收</t>
@@ -3932,29 +3934,29 @@
     <rPh sb="6" eb="7">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜Debug</t>
     <rPh sb="0" eb="1">
       <t>zhao'yao'jing</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备强化，镶嵌宝石验收</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>副本debug，boss冥河娃娃</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物UI-装备icon，tips验收</t>
     <rPh sb="16" eb="17">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>村落和/或宠物展现形式（至少两种方案，策划讨论）</t>
@@ -3973,7 +3975,7 @@
     <rPh sb="21" eb="22">
       <t>tao'lun</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>原型文字版（经济系统流图，各个坑简要描述）</t>
@@ -3998,7 +4000,7 @@
     <rPh sb="18" eb="19">
       <t>miao'shu</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>投放模型设计（经济系统投放控制范围）</t>
@@ -4017,7 +4019,7 @@
     <rPh sb="15" eb="16">
       <t>fan'wei</t>
     </rPh>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>玩法预期及产出投入模型设计（玩法1，大冒险，boss，任务-周期投放）</t>
@@ -4027,7 +4029,7 @@
     <rPh sb="32" eb="33">
       <t>to'fang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置方法、资源对应关系，标准讲解</t>
@@ -4046,18 +4048,18 @@
     <rPh sb="16" eb="17">
       <t>jiang'jie</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本具体内容设计（第3,7章）</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-装备相关，热更新</t>
     <rPh sb="10" eb="11">
       <t>re'geng'x</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑3问题总结：</t>
@@ -4070,7 +4072,7 @@
     <rPh sb="6" eb="7">
       <t>zong'jie</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑3完成情况：</t>
@@ -4083,26 +4085,26 @@
     <rPh sb="6" eb="7">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D-贴图</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D-模型(8.7)</t>
     <rPh sb="3" eb="4">
       <t>mo'xing</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>3D-贴图（8.14），动作（8.21）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作（8.21）</t>
@@ -4133,7 +4135,7 @@
     <rPh sb="20" eb="21">
       <t>wan'cheng'lv</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>优先级为1的任务工43个，已完成36个，完成率84%，未完成工作包括：游戏原型，副本设计范围，两章副本设计，竞品研究，命名规范，场景原画-冥河</t>
@@ -4218,7 +4220,7 @@
     <rPh sb="69" eb="70">
       <t>ming'he</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>优先级为2、3的任务工13个，已完成9个，完成率69%，未完成工作包括：副本选择UI，副本结算文档，背包文档，取消工作1个：技能系统回归测试</t>
@@ -4300,7 +4302,7 @@
     <rPh sb="68" eb="69">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已经完成的功能在完成度和质量方面还是相对比较好的，测试发现的问题基本均已修复，剩余未修复问题大部分未UI相关低优先级问题。</t>
@@ -4397,7 +4399,7 @@
     <rPh sb="58" eb="59">
       <t>wen'ti</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑3完成了对局剩余及体验修改的一些功能，如：动画表现相关，副本、对局、进程关系，服务器客户端副本数据联调等</t>
@@ -4476,7 +4478,7 @@
     <rPh sb="54" eb="55">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>完成了副本选择-副本信息，阵容调整初版功能，任务系统功能，宠物界面中宠物详情和列表已经达到QA测试，技能升级和宠物进阶已完成开发和验收。</t>
@@ -4579,7 +4581,7 @@
     <rPh sb="65" eb="66">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>本里程碑延期1周，主要延期问题有：V0.2体验修改内容，被动技能封文档，宠物界面进阶功能以及策划部分设计文档</t>
@@ -4652,15 +4654,15 @@
     <rPh sb="52" eb="53">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>调整镜头</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>震屏功能测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>道具装备，游戏资源更新</t>
@@ -4670,7 +4672,7 @@
     <rPh sb="2" eb="3">
       <t>zhuagn'b</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试副本完成（音乐音效），做玩家体验</t>
@@ -4698,22 +4700,22 @@
     <rPh sb="16" eb="17">
       <t>ti'yan</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>对局新UI，照妖镜调整，大招换怪冲突解决，战斗AI</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
     <rPh sb="0" eb="1">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑目标</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文字动态加载</t>
@@ -4726,7 +4728,7 @@
     <rPh sb="4" eb="5">
       <t>jia'zai</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>程序开发</t>
@@ -4736,7 +4738,7 @@
     <rPh sb="2" eb="3">
       <t>kaf'ia</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Jira任务单新增290个，其中 个已完成，剩余23个，完成率92%</t>
@@ -4749,7 +4751,7 @@
     <rPh sb="28" eb="29">
       <t>wan'cheng'lv</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增了工作：HockeyApp功能添加，私服搭建，服务器自动发布工具，多语言基础功能，8章小怪属性设计以及布怪</t>
@@ -4813,7 +4815,7 @@
     <rPh sb="53" eb="54">
       <t>bu'guai</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>但由于UI风格尚未确认，导致已开发功能并未制作UI相关资源及配置。</t>
@@ -4862,7 +4864,7 @@
     <rPh sb="30" eb="31">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑2问题总结：</t>
@@ -4875,7 +4877,7 @@
     <rPh sb="6" eb="7">
       <t>zong'jie</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑2完成情况：</t>
@@ -4888,7 +4890,7 @@
     <rPh sb="6" eb="7">
       <t>qing'k</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑2完成了对局、技能功能的完善，对局中除摸摸功能暂停外，其他均按原计划完成，包括：对局流程，AI，UI</t>
@@ -4961,7 +4963,7 @@
     <rPh sb="45" eb="46">
       <t>liu'cheng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>服务器端完成工作道具系统、任务系统。客户端和服务器已经联调角色，登录，宠物部分。</t>
@@ -5010,7 +5012,7 @@
     <rPh sb="37" eb="38">
       <t>bu'fen</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>由于项目方向变更，导致美术风格、游戏内容部分工作阻碍，所以原计划的5*3个对局制作（包括美术资源）全部取消。</t>
@@ -5083,7 +5085,7 @@
     <rPh sb="51" eb="52">
       <t>qu'xiao</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑2计划任务共67个，已完成35个，完成率52%</t>
@@ -5111,7 +5113,7 @@
     <rPh sb="20" eb="21">
       <t>wan'cheng'lv</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>优先级为1的任务工30个，已完成19个，完成率63%，未完成工作包括摸摸，游戏原型，动作状态机自动生成，美术资源。</t>
@@ -5166,7 +5168,7 @@
     <rPh sb="54" eb="55">
       <t>zi'yuan</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>优先级为2、3的任务工37个，已完成16个，完成率43%，未完成工作包括副本等序开发工作7个及策划数值和文档相关工作14个。</t>
@@ -5242,7 +5244,7 @@
     <rPh sb="60" eb="61">
       <t>g</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Jira任务单新增220个，其中201个已完成，剩余19个，完成率91%</t>
@@ -5255,7 +5257,7 @@
     <rPh sb="30" eb="31">
       <t>wan'cheng'lv</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>（Jira任务数据和里程碑任务数据偏差还是有一些，如果任务按里程碑发偏差会小一些？）</t>
@@ -5307,7 +5309,7 @@
     <rPh sb="38" eb="39">
       <t>yi'xie</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已经完成的功能在完成度和质量方面还是相对比较好的，测试发现的问题基本均已修复</t>
@@ -5377,15 +5379,15 @@
     <rPh sb="36" eb="37">
       <t>xiu'fu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑的进度永远不会比黑板上的快</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>周版本内任务无法完成的，周末加班补上</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>开会填表格太多</t>
@@ -5398,7 +5400,7 @@
     <rPh sb="1" eb="2">
       <t>tao'lun</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5474,25 +5476,25 @@
     <rPh sb="43" eb="44">
       <t>que'ding</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：花魄，潘神，河童</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：花魄，潘神，河童</t>
     <rPh sb="3" eb="4">
       <t>hua'p</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：龙宫童子</t>
     <rPh sb="3" eb="4">
       <t>long'gong'tong'zi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>牙仙更名花魄，水中少女更换为龙宫童子</t>
@@ -5520,7 +5522,7 @@
     <rPh sb="14" eb="15">
       <t>long'gong'tong'z</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：走音草（Melody Bulb）</t>
@@ -5530,7 +5532,7 @@
     <rPh sb="3" eb="4">
       <t>zou'yin'cao</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>龙宫童子，温迪戈</t>
@@ -5540,95 +5542,95 @@
     <rPh sb="2" eb="3">
       <t>tong'zi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>冥河-第四关（8.10），潘神，Momo（8.12）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>苗娃，河童，花魄</t>
     <rPh sb="6" eb="7">
       <t>hua'po</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-血量置数，减伤护盾，吸收护盾UI表现</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
     <rPh sb="0" eb="1">
       <t>wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：状态机生成工具验收</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：字体动态指定方法</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：照妖镜UI、表现修改</t>
@@ -5644,7 +5646,7 @@
     <rPh sb="11" eb="12">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：照妖镜验收</t>
@@ -5657,15 +5659,15 @@
     <rPh sb="6" eb="7">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>音乐音效逻辑用例设计（回归）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>副本配置，boss-阿穆特表现测试</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Jira Bug新增130个，总计186个，剩余4个未修复</t>
@@ -5678,7 +5680,7 @@
     <rPh sb="26" eb="27">
       <t>wei'xiu'fu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Jira Bug新增116个，总计310个，剩余24个未修复</t>
@@ -5697,7 +5699,7 @@
     <rPh sb="28" eb="29">
       <t>xiu'fu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑2问题总结回顾：</t>
@@ -5713,7 +5715,7 @@
     <rPh sb="8" eb="9">
       <t>hui'gu</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>魔灵召唤的体验和产出是否达到了预期效果？后期需要借鉴的内容是否已经掌握？</t>
@@ -5774,7 +5776,7 @@
     <rPh sb="33" eb="34">
       <t>zhang'wo</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增设计目的讲解流程感觉效果如何？后续怎么做？</t>
@@ -5811,7 +5813,7 @@
     <rPh sb="21" eb="22">
       <t>zuo</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>里程碑4结束后，到0.7的版本已经过半。</t>
@@ -5839,7 +5841,7 @@
     <rPh sb="17" eb="18">
       <t>guo'ban</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>到年底除了里程碑4之外只剩4个月时间，功能和内容上距离0.7的目标还有很大差距。</t>
@@ -5906,7 +5908,7 @@
     <rPh sb="37" eb="38">
       <t>cha'j</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>对于时间和游戏内容的平衡需要考虑，不能重复zy的做法。</t>
@@ -5922,11 +5924,11 @@
     <rPh sb="24" eb="25">
       <t>zuo'fa</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>装备文档-icon，tips封文档</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>新增：音乐音效逻辑</t>
@@ -5942,15 +5944,15 @@
     <rPh sb="7" eb="8">
       <t>luo'ji</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>被动技能-开场释放，换阵不释放，伤害反应，先置技能ui显示</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>新增：账号服务器</t>
@@ -5963,11 +5965,11 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：道具装备代码review</t>
@@ -5983,25 +5985,25 @@
     <rPh sb="7" eb="8">
       <t>dai'ma</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：配2个小怪副本（怪物动作等资源回来后配置）</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：邮箱三方</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>场景性能测试</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>延期：宠物界面-装备基础界面文档分析</t>
@@ -6014,61 +6016,61 @@
     <rPh sb="5" eb="6">
       <t>jie'm</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>延期：宠物UI-装备装备界面文档分析</t>
     <rPh sb="0" eb="1">
       <t>yan'qi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>延期：第3章副本用例设计</t>
     <rPh sb="0" eb="1">
       <t>yan'qi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：对局-照妖镜剩余内容功能测试</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>延期：宠物UI-装备强化界面文档分析</t>
     <rPh sb="0" eb="1">
       <t>yan'qi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>延期：宠物UI-装备宝石界面/镶嵌界面文档分析</t>
     <rPh sb="0" eb="1">
       <t>yan'qi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>延期：第7章副本用例设计</t>
     <rPh sb="0" eb="1">
       <t>yan'qi</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>新增：UI风格6.2</t>
@@ -6078,14 +6080,14 @@
     <rPh sb="5" eb="6">
       <t>feng'g</t>
     </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>新增：特效第3批发包</t>
     <rPh sb="0" eb="1">
       <t>xin'zeng</t>
     </rPh>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>延期：策划文档</t>
@@ -6098,21 +6100,21 @@
     <rPh sb="5" eb="6">
       <t>wen'dang</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
     <rPh sb="0" eb="1">
       <t>yi'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>更新功能-资源</t>
     <rPh sb="5" eb="6">
       <t>zi'yuan</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Day1，封文档，程序开发</t>
@@ -6122,7 +6124,7 @@
     <rPh sb="11" eb="12">
       <t>kaf'ia</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6145,11 +6147,11 @@
       </rPr>
       <t>用例设计</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账号服务器</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>道具装备代码review</t>
@@ -6162,15 +6164,15 @@
     <rPh sb="2" eb="4">
       <t>kai'fa'i</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>小怪：狼人，蜥蜴人，阿穆特，安普沙</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作（27日）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>特效-第3批（24日）</t>
@@ -6186,20 +6188,130 @@
     <rPh sb="9" eb="10">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>动作（27日）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D-模型</t>
+    <rPh sb="3" eb="4">
+      <t>mo'xing</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置准备-怪物表，副本表，副本入口</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能音效需求-&gt;小白（小白找资源，MT验收）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置-美杜莎-逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei'du'sha</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本配置-卡戎-逻辑（熟悉配置，模型配置)</t>
+    <rPh sb="0" eb="1">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ka'rong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>luo'ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu'xi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mo'xing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景预置加载测试</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景性能测试</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增：订单服务器熟悉</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>f'wu'q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu'xi</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -6520,6 +6632,13 @@
       <name val="微软雅黑"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6657,413 +6776,415 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="279">
+  <cellStyleXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7071,176 +7192,214 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="38" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="37" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="38" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="279">
+  <cellStyles count="281">
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -7378,6 +7537,7 @@
     <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -7520,8 +7680,9 @@
     <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="177">
+  <dxfs count="184">
     <dxf>
       <fill>
         <patternFill>
@@ -7715,6 +7876,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8966,6 +9167,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8993,14 +9218,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>527017</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>47466</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>263248</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>47467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9031,14 +9256,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>546062</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>171274</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>282293</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>171273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12094,667 +12319,667 @@
     </row>
   </sheetData>
   <autoFilter ref="A13:M98"/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="F7:F8 D12 F10:F11 D77 G25:H25 B96:G96 I71:M71 H12:M12 L43:M43 G43:I43 B71:F71 J25:M25 G42:M42 G26:I26 K26:M26 H85 B38:J38 A14 B28:F31 C23:F26 G40:J40 G41:I41 B40:F43 G64:I65 B62:F66 B33:J33 B56:E57 H45:I45 G57 G78:H78 G77 E77:F78 B35:G36 B34:H34 B32:M32 G28:M29 L30:M31 L33:M36 J36:J37 G63:M63 G62:I62 B61:I61 J61:M62 B17:H17 B18:I18 B77:C78 H96:M97 B75:I76 J75 B80:C80 B85:F85 B86:C86 E86:H86 H35 B60:J60 L60:M60 G30:J31 B98:M98 B97:C97 E97:G97 G94:H95 B89:C89 A95:F95 H77:M78 K41:M41 I57:M57 K23:M23 L24:M24 L40:M40 B37:M37 A13:M13 D14:M14 A15:M15 B27:M27 B39:M39 G66:M66 B44:M44 B79:M79 K45:M45 H46:M53 B16:M16 L38:M38 K64:M65 B19:M22 J17:M17 K18:M18 B58:M59 K75:M76 B67:M70 B81:M84 J94:M95 I85:M88 G89:M93 H24:J24 G23:G24 B72:M74 E80:M80 G54:M56 B87:H88 B91:F94 A16:A94 E89:F90 B90:D90">
-    <cfRule type="cellIs" dxfId="176" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="324" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F75 G25:H25 L24:M24 I71:M71 G42:M42 J32:K32 E71:F71 K23:M23 J25:M25 G41 J85:M85 K27:K29 E23:F26 G26:I26 E70:M70 K26:M26 G84:M84 H85 K82:K83 J37:K37 J81:K81 J39:K39 J38 K19:K22 G56:G57 E84:F85 I30 K61:K69 L60 K59 I31:J31 G94:H95 J94:M95 J87:M88 G87:H88 G90:M93 I85:I88 H24:J24 E87:E95">
-    <cfRule type="cellIs" dxfId="175" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="326" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="327" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="178" priority="327" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F75 I2:I6 G25:H25 L24:M24 I71:M71 G42:M42 J32:K32 E71:F71 K23:M23 J25:M25 G41 J85:M85 K27:K29 E23:F26 G26:I26 E70:M70 K26:M26 H85 E84:M84 K82:K83 J37:K37 J81:K81 J39:K39 J38 K19:K22 G56:G57 E85:F85 I30 K59 K61:K69 L60 I31:J31 G94:H95 J94:M95 J87:M88 G87:H88 G90:M93 I85:I88 H24:J24 E87:E95">
-    <cfRule type="cellIs" dxfId="173" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="325" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33 K40">
-    <cfRule type="cellIs" dxfId="172" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="218" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33 K40">
-    <cfRule type="cellIs" dxfId="171" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="220" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="221" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="174" priority="221" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33 K40">
-    <cfRule type="cellIs" dxfId="169" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="219" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="168" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="214" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="167" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="216" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="217" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="170" priority="217" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="165" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="215" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="164" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="195" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="163" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="197" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="198" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="166" priority="198" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="161" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="196" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94:I95">
-    <cfRule type="cellIs" dxfId="160" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="182" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94:I95">
-    <cfRule type="cellIs" dxfId="159" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="184" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="185" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="162" priority="185" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",I94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94:I95">
-    <cfRule type="cellIs" dxfId="157" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="183" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="156" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="173" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="155" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="175" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="176" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="158" priority="176" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="153" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="174" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="152" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="168" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="151" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="170" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="171" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="154" priority="171" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",G71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="149" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="169" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="148" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="147" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="162" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="163" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="150" priority="163" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="145" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="161" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="144" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="143" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="151" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="152" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="146" priority="152" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="141" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="150" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64:J65">
-    <cfRule type="cellIs" dxfId="140" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="132" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" dxfId="139" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="128" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" dxfId="138" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="130" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="131" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="141" priority="131" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" dxfId="136" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="cellIs" dxfId="135" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="127" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:F82">
-    <cfRule type="cellIs" dxfId="134" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="125" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="126" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="137" priority="126" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:F82">
-    <cfRule type="cellIs" dxfId="132" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="cellIs" dxfId="131" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="122" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="123" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="134" priority="123" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="cellIs" dxfId="129" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="121" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="128" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="119" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="120" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="131" priority="120" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="126" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="118" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="125" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="116" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="117" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="128" priority="117" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="123" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="115" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="122" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="113" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="114" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="125" priority="114" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="120" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="112" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="119" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="110" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="111" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="122" priority="111" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="117" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="116" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="107" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="108" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="119" priority="108" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="114" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="106" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="113" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="104" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="105" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="116" priority="105" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="111" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="103" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="110" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="101" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="102" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="113" priority="102" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" dxfId="108" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="100" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="cellIs" dxfId="107" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="99" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78 D80 D86 D89">
-    <cfRule type="cellIs" dxfId="106" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="98" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:D55 F45:G45 G46:G53 F46:F57">
-    <cfRule type="cellIs" dxfId="105" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="97" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B55">
-    <cfRule type="cellIs" dxfId="104" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="96" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E55">
-    <cfRule type="cellIs" dxfId="103" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="95" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="cellIs" dxfId="102" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="87" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="cellIs" dxfId="101" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="89" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="90" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="104" priority="90" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="cellIs" dxfId="99" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="88" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="98" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="83" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="97" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="85" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="86" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="100" priority="86" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="95" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="94" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="79" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="93" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="81" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="82" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="96" priority="82" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="91" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="80" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="90" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="78" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="89" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="45" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="46" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="92" priority="46" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="87" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="86" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="70" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="85" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="72" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="73" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="88" priority="73" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="83" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="71" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="82" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="81" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="69" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="84" priority="69" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="79" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="67" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="62" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="77" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="64" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="65" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="80" priority="65" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="75" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="63" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65">
-    <cfRule type="cellIs" dxfId="74" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="10" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="60" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="61" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="76" priority="61" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="71" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="70" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="57" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="58" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="73" priority="58" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="56" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="54" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="55" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="65" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="53" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="64" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="51" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="52" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="67" priority="52" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="50" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="61" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="48" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="64" priority="49" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="59" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="47" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="43" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="61" priority="43" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="56" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="41" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="38" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="39" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="57" priority="39" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="cellIs" dxfId="52" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="37" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36">
-    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="36" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="54" priority="36" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36">
-    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="33" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="51" priority="33" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" dxfId="45" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="48" priority="30" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" dxfId="43" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="24" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64">
-    <cfRule type="cellIs" dxfId="36" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="18" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="39" priority="18" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64">
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12765,13 +12990,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N96"/>
+  <dimension ref="A2:R103"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44:K47"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12783,16 +13008,21 @@
     <col min="5" max="5" width="3.85546875" style="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="112" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="53" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="53" customWidth="1"/>
-    <col min="13" max="13" width="19" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="53"/>
+    <col min="8" max="8" width="3.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="53" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" style="53" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="53" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="53" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="112" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="52" t="s">
         <v>405</v>
       </c>
@@ -12805,23 +13035,39 @@
       <c r="G2" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="110" t="s">
+        <v>648</v>
+      </c>
+      <c r="J2" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="L2" s="110" t="s">
+        <v>648</v>
+      </c>
+      <c r="M2" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="O2" s="110" t="s">
+        <v>648</v>
+      </c>
+      <c r="P2" s="52" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="110" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>284</v>
       </c>
       <c r="F3" s="110"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="R3" s="110"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
         <v>288</v>
       </c>
@@ -12838,7 +13084,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>293</v>
       </c>
@@ -12855,7 +13101,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="96" t="s">
         <v>594</v>
       </c>
@@ -12872,27 +13118,28 @@
         <v>653</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>290</v>
       </c>
       <c r="C7" s="53">
         <v>4</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="J7" s="92" t="s">
         <v>549</v>
       </c>
-      <c r="J7" s="53">
+      <c r="K7" s="53">
         <v>3</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="M7" s="92" t="s">
         <v>584</v>
       </c>
-      <c r="L7" s="92">
+      <c r="N7" s="92">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="144"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="92" t="s">
         <v>591</v>
       </c>
@@ -12914,10 +13161,11 @@
       <c r="H8" s="53">
         <v>1</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="144"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="53" t="s">
         <v>289</v>
       </c>
@@ -12930,10 +13178,11 @@
       <c r="H9" s="53">
         <v>2</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="144"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="92" t="s">
         <v>592</v>
       </c>
@@ -12946,44 +13195,49 @@
       <c r="H10" s="53">
         <v>3</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="144"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>291</v>
       </c>
       <c r="C11" s="53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="J11" s="92" t="s">
         <v>550</v>
       </c>
-      <c r="J11" s="53">
+      <c r="K11" s="53">
         <v>1</v>
       </c>
-      <c r="K11" s="92" t="s">
+      <c r="M11" s="92" t="s">
         <v>583</v>
       </c>
-      <c r="L11" s="92">
+      <c r="N11" s="92">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="144"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="92" t="s">
         <v>590</v>
       </c>
       <c r="C12" s="53">
         <v>1.5</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="M12" s="92" t="s">
         <v>564</v>
       </c>
-      <c r="L12" s="53">
+      <c r="N12" s="53">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="92" t="s">
         <v>593</v>
       </c>
@@ -12991,7 +13245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>292</v>
       </c>
@@ -12999,21 +13253,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="92" t="s">
         <v>491</v>
       </c>
       <c r="C15" s="53">
         <v>1.5</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="M15" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="L15" s="53">
+      <c r="N15" s="53">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="87" t="s">
         <v>531</v>
       </c>
@@ -13030,35 +13284,35 @@
         <v>654</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="87" t="s">
         <v>532</v>
       </c>
       <c r="C17" s="53">
         <v>0.5</v>
       </c>
-      <c r="I17" s="87" t="s">
+      <c r="J17" s="87" t="s">
         <v>532</v>
       </c>
-      <c r="J17" s="53">
+      <c r="K17" s="53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="92" t="s">
         <v>551</v>
       </c>
       <c r="C18" s="53">
         <v>0.5</v>
       </c>
-      <c r="I18" s="92" t="s">
+      <c r="J18" s="92" t="s">
         <v>551</v>
       </c>
-      <c r="J18" s="53">
+      <c r="K18" s="53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="87" t="s">
         <v>544</v>
       </c>
@@ -13072,26 +13326,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
         <v>543</v>
       </c>
       <c r="C20" s="53">
         <v>1</v>
       </c>
-      <c r="I20" s="87" t="s">
+      <c r="J20" s="87" t="s">
         <v>543</v>
       </c>
-      <c r="J20" s="53">
+      <c r="K20" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
         <v>488</v>
       </c>
@@ -13099,13 +13353,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="53" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="92" t="s">
         <v>286</v>
       </c>
@@ -13114,7 +13368,7 @@
       </c>
       <c r="D24" s="88"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="101" t="s">
         <v>612</v>
       </c>
@@ -13122,983 +13376,1276 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="88"/>
-      <c r="I25" s="101" t="s">
+      <c r="J25" s="101" t="s">
         <v>612</v>
       </c>
-      <c r="J25" s="53">
+      <c r="K25" s="53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="81" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="134" t="s">
+        <v>711</v>
+      </c>
+      <c r="D26" s="88"/>
+      <c r="G26" s="134" t="s">
+        <v>711</v>
+      </c>
+      <c r="I26" s="136" t="s">
+        <v>678</v>
+      </c>
+      <c r="J26" s="101"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="134" t="s">
+        <v>712</v>
+      </c>
+      <c r="C27" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="88"/>
+      <c r="G27" s="134" t="s">
+        <v>712</v>
+      </c>
+      <c r="H27" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="136" t="s">
+        <v>678</v>
+      </c>
+      <c r="J27" s="101"/>
+    </row>
+    <row r="28" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="140"/>
+      <c r="B28" s="141" t="s">
         <v>297</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C28" s="141">
         <v>0</v>
       </c>
-      <c r="F26" s="113"/>
-      <c r="G26" s="81" t="s">
+      <c r="F28" s="142"/>
+      <c r="G28" s="141" t="s">
         <v>298</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H28" s="141">
         <v>1.5</v>
       </c>
-      <c r="I26" s="81" t="s">
+      <c r="I28" s="142"/>
+      <c r="J28" s="141" t="s">
         <v>298</v>
       </c>
-      <c r="J26" s="81">
+      <c r="K28" s="141">
         <v>1.5</v>
       </c>
-      <c r="K26" s="81" t="s">
+      <c r="L28" s="142"/>
+      <c r="M28" s="141" t="s">
         <v>299</v>
       </c>
-      <c r="L26" s="81">
+      <c r="N28" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="81" t="s">
+      <c r="O28" s="142"/>
+      <c r="R28" s="142"/>
+    </row>
+    <row r="29" spans="1:18" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="140"/>
+      <c r="B29" s="141" t="s">
         <v>300</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C29" s="141">
         <v>0</v>
       </c>
-      <c r="F27" s="113"/>
-      <c r="M27" s="81" t="s">
+      <c r="F29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="141" t="s">
         <v>300</v>
       </c>
-      <c r="N27" s="81">
+      <c r="Q29" s="141">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="53">
-        <f>SUM(C4:C27)</f>
-        <v>30.85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="R29" s="142"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C30" s="53">
+        <f>SUM(C4:C29)</f>
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="53" t="s">
         <v>489</v>
-      </c>
-      <c r="C31" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="D31" s="87" t="s">
-        <v>529</v>
-      </c>
-      <c r="E31" s="53">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="111" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="C32" s="53">
-        <v>1</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="53">
-        <v>1</v>
-      </c>
-      <c r="F32" s="111" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="s">
-        <v>303</v>
       </c>
       <c r="C33" s="53">
         <v>0.5</v>
       </c>
-      <c r="I33" s="92" t="s">
-        <v>555</v>
-      </c>
-      <c r="J33" s="53">
+      <c r="D33" s="87" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" s="53">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="111" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B34" s="53" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C34" s="53">
         <v>1</v>
       </c>
-      <c r="D34" s="87" t="s">
-        <v>530</v>
+      <c r="D34" s="53" t="s">
+        <v>302</v>
       </c>
       <c r="E34" s="53">
         <v>1</v>
       </c>
       <c r="F34" s="111" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="92" t="s">
+        <v>555</v>
+      </c>
+      <c r="K35" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C36" s="53">
+        <v>1</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>530</v>
+      </c>
+      <c r="E36" s="53">
+        <v>1</v>
+      </c>
+      <c r="F36" s="111" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="s">
+    <row r="37" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="140"/>
+      <c r="B37" s="141" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C37" s="141">
         <v>3.5</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D37" s="145" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E37" s="141">
         <v>2</v>
       </c>
-      <c r="F35" s="117" t="s">
+      <c r="F37" s="146" t="s">
         <v>657</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="G37" s="141" t="s">
         <v>307</v>
       </c>
-      <c r="H35" s="53">
+      <c r="H37" s="141">
         <v>0.5</v>
       </c>
-      <c r="K35" s="92" t="s">
+      <c r="I37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="143" t="s">
         <v>565</v>
       </c>
-      <c r="L35" s="53">
+      <c r="N37" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
+      <c r="O37" s="142"/>
+      <c r="R37" s="142"/>
+    </row>
+    <row r="38" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="140"/>
+      <c r="B38" s="141" t="s">
         <v>308</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C38" s="141">
         <v>2</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D38" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E38" s="141">
         <v>2</v>
       </c>
-      <c r="F36" s="117" t="s">
+      <c r="F38" s="146" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="I38" s="142"/>
+      <c r="L38" s="142"/>
+      <c r="O38" s="142"/>
+      <c r="R38" s="142"/>
+    </row>
+    <row r="39" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="140"/>
+      <c r="B39" s="141" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C39" s="141">
         <v>4</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="F39" s="142"/>
+      <c r="G39" s="141" t="s">
         <v>311</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H39" s="141">
         <v>2</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I39" s="142"/>
+      <c r="J39" s="141" t="s">
         <v>312</v>
       </c>
-      <c r="J37" s="53">
+      <c r="K39" s="141">
         <v>0.5</v>
       </c>
-      <c r="M37" s="92" t="s">
+      <c r="L39" s="142"/>
+      <c r="O39" s="142"/>
+      <c r="P39" s="143" t="s">
         <v>587</v>
       </c>
-      <c r="N37" s="53">
+      <c r="Q39" s="141">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+      <c r="R39" s="142"/>
+    </row>
+    <row r="40" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="140"/>
+      <c r="B40" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C40" s="141">
         <v>2</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="F40" s="142"/>
+      <c r="G40" s="141" t="s">
         <v>314</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H40" s="141">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
+      <c r="I40" s="142"/>
+      <c r="L40" s="142"/>
+      <c r="O40" s="142"/>
+      <c r="R40" s="142"/>
+    </row>
+    <row r="41" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="140"/>
+      <c r="B41" s="141" t="s">
         <v>315</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C41" s="141">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
+      <c r="F41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="L41" s="142"/>
+      <c r="O41" s="142"/>
+      <c r="R41" s="142"/>
+    </row>
+    <row r="42" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="140"/>
+      <c r="B42" s="141" t="s">
         <v>485</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C42" s="141">
         <v>2.5</v>
       </c>
-      <c r="I40" s="92" t="s">
+      <c r="F42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="143" t="s">
         <v>554</v>
       </c>
-      <c r="J40" s="53">
+      <c r="K42" s="141">
         <v>2</v>
       </c>
-      <c r="K40" s="92" t="s">
+      <c r="L42" s="142"/>
+      <c r="M42" s="143" t="s">
         <v>566</v>
       </c>
-      <c r="L40" s="92">
+      <c r="N42" s="143">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="92" t="s">
+      <c r="O42" s="147"/>
+      <c r="R42" s="142"/>
+    </row>
+    <row r="43" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="140"/>
+      <c r="B43" s="143" t="s">
         <v>552</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C43" s="141">
         <v>3</v>
       </c>
-      <c r="I41" s="92" t="s">
+      <c r="F43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="143" t="s">
         <v>553</v>
       </c>
-      <c r="J41" s="53">
+      <c r="K43" s="141">
         <v>2</v>
       </c>
-      <c r="K41" s="92" t="s">
+      <c r="L43" s="142"/>
+      <c r="M43" s="143" t="s">
         <v>567</v>
       </c>
-      <c r="L41" s="92">
+      <c r="N43" s="143">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="53" t="s">
+      <c r="O43" s="147"/>
+      <c r="R43" s="142"/>
+    </row>
+    <row r="44" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="140"/>
+      <c r="B44" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C44" s="141">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="53" t="s">
+      <c r="F44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="L44" s="142"/>
+      <c r="O44" s="142"/>
+      <c r="R44" s="142"/>
+    </row>
+    <row r="45" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="140"/>
+      <c r="B45" s="141" t="s">
         <v>317</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C45" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="53" t="s">
+      <c r="F45" s="142"/>
+      <c r="I45" s="142"/>
+      <c r="L45" s="142"/>
+      <c r="O45" s="142"/>
+      <c r="R45" s="142"/>
+    </row>
+    <row r="46" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="140"/>
+      <c r="B46" s="141" t="s">
         <v>318</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C46" s="141">
         <v>4</v>
       </c>
-      <c r="G44" s="53" t="s">
+      <c r="F46" s="142"/>
+      <c r="G46" s="141" t="s">
         <v>319</v>
       </c>
-      <c r="H44" s="53">
+      <c r="H46" s="141">
         <v>1.5</v>
       </c>
-      <c r="I44" s="92" t="s">
+      <c r="I46" s="142"/>
+      <c r="J46" s="143" t="s">
         <v>319</v>
       </c>
-      <c r="J44" s="53">
+      <c r="K46" s="141">
         <v>1</v>
       </c>
-      <c r="K44" s="92" t="s">
+      <c r="L46" s="142"/>
+      <c r="M46" s="143" t="s">
         <v>320</v>
       </c>
-      <c r="L44" s="53">
+      <c r="N46" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="53" t="s">
+      <c r="O46" s="142"/>
+      <c r="R46" s="142"/>
+    </row>
+    <row r="47" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="140"/>
+      <c r="B47" s="141" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C47" s="141">
         <v>2</v>
       </c>
-      <c r="M45" s="53" t="s">
+      <c r="F47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="141" t="s">
         <v>321</v>
       </c>
-      <c r="N45" s="53">
+      <c r="Q47" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="53" t="s">
+      <c r="R47" s="142"/>
+    </row>
+    <row r="48" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="140"/>
+      <c r="B48" s="141" t="s">
         <v>326</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C48" s="141">
         <v>2</v>
       </c>
-      <c r="K46" s="53" t="s">
+      <c r="F48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="141" t="s">
         <v>326</v>
       </c>
-      <c r="L46" s="53">
+      <c r="N48" s="141">
         <v>2</v>
       </c>
-      <c r="M46" s="53" t="s">
+      <c r="O48" s="142"/>
+      <c r="P48" s="141" t="s">
         <v>327</v>
       </c>
-      <c r="N46" s="53">
+      <c r="Q48" s="141">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="53" t="s">
+      <c r="R48" s="142"/>
+    </row>
+    <row r="49" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="140"/>
+      <c r="B49" s="141" t="s">
         <v>328</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C49" s="141">
         <v>1.5</v>
       </c>
-      <c r="M47" s="53" t="s">
+      <c r="F49" s="142"/>
+      <c r="I49" s="142"/>
+      <c r="L49" s="142"/>
+      <c r="O49" s="142"/>
+      <c r="P49" s="141" t="s">
         <v>328</v>
       </c>
-      <c r="N47" s="53">
+      <c r="Q49" s="141">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="B48" s="81" t="s">
+      <c r="R49" s="142"/>
+    </row>
+    <row r="50" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="140"/>
+      <c r="B50" s="141" t="s">
         <v>322</v>
       </c>
-      <c r="C48" s="81">
+      <c r="C50" s="141">
         <v>0</v>
       </c>
-      <c r="F48" s="113"/>
-      <c r="G48" s="81" t="s">
+      <c r="F50" s="142"/>
+      <c r="G50" s="141" t="s">
         <v>323</v>
       </c>
-      <c r="H48" s="81">
+      <c r="H50" s="141">
         <v>1.5</v>
       </c>
-      <c r="I48" s="81" t="s">
+      <c r="I50" s="142"/>
+      <c r="J50" s="141" t="s">
         <v>323</v>
       </c>
-      <c r="J48" s="81">
+      <c r="K50" s="141">
         <v>1.5</v>
       </c>
-      <c r="K48" s="81" t="s">
+      <c r="L50" s="142"/>
+      <c r="M50" s="141" t="s">
         <v>324</v>
       </c>
-      <c r="L48" s="81">
+      <c r="N50" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="B49" s="81" t="s">
+      <c r="O50" s="142"/>
+      <c r="R50" s="142"/>
+    </row>
+    <row r="51" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="140"/>
+      <c r="B51" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="C49" s="81">
+      <c r="C51" s="141">
         <v>0</v>
       </c>
-      <c r="F49" s="113"/>
-      <c r="M49" s="81" t="s">
+      <c r="F51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="L51" s="142"/>
+      <c r="O51" s="142"/>
+      <c r="P51" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="N49" s="81">
+      <c r="Q51" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="53">
-        <f>SUM(C31:C49)</f>
+      <c r="R51" s="142"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C52" s="53">
+        <f>SUM(C33:C51)</f>
         <v>35.5</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="109" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="109" t="s">
         <v>662</v>
       </c>
-      <c r="C53" s="109">
+      <c r="C55" s="109">
         <v>1</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D55" s="88" t="s">
         <v>662</v>
       </c>
-      <c r="E53" s="109">
+      <c r="E55" s="109">
         <v>1</v>
       </c>
-      <c r="F53" s="111" t="s">
+      <c r="F55" s="111" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="92" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="92" t="s">
         <v>556</v>
-      </c>
-      <c r="C54" s="53">
-        <v>2</v>
-      </c>
-      <c r="D54" s="88" t="s">
-        <v>665</v>
-      </c>
-      <c r="E54" s="53">
-        <v>0.2</v>
-      </c>
-      <c r="F54" s="111" t="s">
-        <v>649</v>
-      </c>
-      <c r="I54" s="92" t="s">
-        <v>556</v>
-      </c>
-      <c r="J54" s="53">
-        <v>1.5</v>
-      </c>
-      <c r="K54" s="92" t="s">
-        <v>586</v>
-      </c>
-      <c r="L54" s="92">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="C55" s="53">
-        <v>4</v>
-      </c>
-      <c r="D55" s="87" t="s">
-        <v>533</v>
-      </c>
-      <c r="E55" s="53">
-        <v>2</v>
-      </c>
-      <c r="F55" s="117" t="s">
-        <v>657</v>
-      </c>
-      <c r="G55" s="87" t="s">
-        <v>533</v>
-      </c>
-      <c r="H55" s="53">
-        <v>1</v>
-      </c>
-      <c r="K55" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="L55" s="53">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="53" t="s">
-        <v>333</v>
       </c>
       <c r="C56" s="53">
         <v>2</v>
       </c>
-      <c r="I56" s="92" t="s">
+      <c r="D56" s="88" t="s">
+        <v>665</v>
+      </c>
+      <c r="E56" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="111" t="s">
+        <v>649</v>
+      </c>
+      <c r="J56" s="92" t="s">
+        <v>556</v>
+      </c>
+      <c r="K56" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="M56" s="92" t="s">
+        <v>586</v>
+      </c>
+      <c r="N56" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="O56" s="144"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" s="53">
+        <v>4</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>533</v>
+      </c>
+      <c r="E57" s="53">
+        <v>2</v>
+      </c>
+      <c r="F57" s="117" t="s">
+        <v>657</v>
+      </c>
+      <c r="G57" s="87" t="s">
+        <v>533</v>
+      </c>
+      <c r="H57" s="53">
+        <v>1</v>
+      </c>
+      <c r="I57" s="136" t="s">
+        <v>678</v>
+      </c>
+      <c r="M57" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="N57" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="140"/>
+      <c r="B58" s="141" t="s">
         <v>333</v>
       </c>
-      <c r="J56" s="53">
+      <c r="C58" s="141">
+        <v>2</v>
+      </c>
+      <c r="F58" s="142"/>
+      <c r="I58" s="142"/>
+      <c r="J58" s="143" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" s="141">
         <v>1</v>
       </c>
-      <c r="M56" s="92" t="s">
+      <c r="L58" s="142"/>
+      <c r="O58" s="142"/>
+      <c r="P58" s="143" t="s">
         <v>588</v>
       </c>
-      <c r="N56" s="53">
+      <c r="Q58" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="53" t="s">
+      <c r="R58" s="142"/>
+    </row>
+    <row r="59" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="140"/>
+      <c r="B59" s="141" t="s">
         <v>337</v>
       </c>
-      <c r="C57" s="53">
+      <c r="C59" s="141">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="53" t="s">
+      <c r="F59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="L59" s="142"/>
+      <c r="O59" s="142"/>
+      <c r="R59" s="142"/>
+    </row>
+    <row r="60" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="140"/>
+      <c r="B60" s="141" t="s">
         <v>338</v>
       </c>
-      <c r="C58" s="53">
+      <c r="C60" s="141">
         <v>1</v>
       </c>
-      <c r="I58" s="92" t="s">
+      <c r="F60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="143" t="s">
         <v>557</v>
       </c>
-      <c r="J58" s="53">
+      <c r="K60" s="141">
         <v>1.5</v>
       </c>
-      <c r="K58" s="53" t="s">
+      <c r="L60" s="142"/>
+      <c r="M60" s="141" t="s">
         <v>339</v>
       </c>
-      <c r="L58" s="53">
+      <c r="N60" s="141">
         <v>0.5</v>
       </c>
-      <c r="M58" s="53" t="s">
+      <c r="O60" s="142"/>
+      <c r="P60" s="141" t="s">
         <v>338</v>
       </c>
-      <c r="N58" s="53">
+      <c r="Q60" s="141">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="53" t="s">
+      <c r="R60" s="142"/>
+    </row>
+    <row r="61" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="140"/>
+      <c r="B61" s="141" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" s="141">
+        <v>2</v>
+      </c>
+      <c r="F61" s="142"/>
+      <c r="G61" s="141" t="s">
+        <v>295</v>
+      </c>
+      <c r="H61" s="141">
+        <v>1.5</v>
+      </c>
+      <c r="I61" s="142"/>
+      <c r="L61" s="142"/>
+      <c r="M61" s="141" t="s">
+        <v>414</v>
+      </c>
+      <c r="N61" s="141">
+        <v>0.5</v>
+      </c>
+      <c r="O61" s="142"/>
+      <c r="R61" s="142"/>
+    </row>
+    <row r="62" spans="1:18" s="141" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="140"/>
+      <c r="B62" s="141" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="141">
+        <v>1</v>
+      </c>
+      <c r="F62" s="142"/>
+      <c r="I62" s="142"/>
+      <c r="L62" s="142"/>
+      <c r="O62" s="142"/>
+      <c r="P62" s="141" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q62" s="141">
+        <v>1</v>
+      </c>
+      <c r="R62" s="142"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C63" s="53">
         <v>1.5</v>
       </c>
-      <c r="M59" s="53" t="s">
+      <c r="P63" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="N59" s="53">
+      <c r="Q63" s="53">
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60" s="53">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="82" t="s">
+        <v>508</v>
+      </c>
+      <c r="C64" s="53">
         <v>2</v>
       </c>
-      <c r="G60" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="H60" s="53">
-        <v>1.5</v>
-      </c>
-      <c r="K60" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="L60" s="53">
+      <c r="M64" s="53" t="s">
+        <v>507</v>
+      </c>
+      <c r="N64" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="C65" s="53">
+        <v>3</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="E65" s="53">
+        <v>2</v>
+      </c>
+      <c r="F65" s="111" t="s">
+        <v>649</v>
+      </c>
+      <c r="G65" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="C66" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="F66" s="53"/>
+      <c r="G66" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="H66" s="53">
+        <v>2</v>
+      </c>
+      <c r="I66" s="117" t="s">
+        <v>657</v>
+      </c>
+      <c r="J66" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="K66" s="53">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="C61" s="53">
+      <c r="M66" s="112"/>
+      <c r="P66" s="92" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q66" s="53">
         <v>1</v>
       </c>
-      <c r="M61" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="N61" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="82" t="s">
-        <v>508</v>
-      </c>
-      <c r="C62" s="53">
-        <v>2</v>
-      </c>
-      <c r="K62" s="53" t="s">
-        <v>507</v>
-      </c>
-      <c r="L62" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="53" t="s">
-        <v>487</v>
-      </c>
-      <c r="C63" s="53">
-        <v>3</v>
-      </c>
-      <c r="D63" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="E63" s="53">
-        <v>2</v>
-      </c>
-      <c r="F63" s="111" t="s">
-        <v>649</v>
-      </c>
-      <c r="G63" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="53" t="s">
-        <v>486</v>
-      </c>
-      <c r="C64" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="53" t="s">
-        <v>492</v>
-      </c>
-      <c r="C65" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="C66" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B67" s="53" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C67" s="53">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F67" s="53"/>
+      <c r="G67" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="H67" s="53">
+        <v>2</v>
+      </c>
+      <c r="I67" s="117" t="s">
+        <v>657</v>
+      </c>
+      <c r="M67" s="112"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B68" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="C68" s="53">
+        <v>4</v>
+      </c>
+      <c r="F68" s="53"/>
+      <c r="J68" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="K68" s="53">
+        <v>2</v>
+      </c>
+      <c r="M68" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="N68" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="P68" s="92" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q68" s="53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="53">
+        <v>2</v>
+      </c>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="K69" s="53">
+        <v>2</v>
+      </c>
+      <c r="M69" s="112"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B70" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="C71" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="C68" s="53">
+      <c r="C75" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="53" t="s">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="C69" s="53">
+      <c r="C76" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="53" t="s">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="53" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="53" t="s">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="53" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="80"/>
-      <c r="B72" s="81" t="s">
+    <row r="79" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="80"/>
+      <c r="B79" s="81" t="s">
         <v>334</v>
       </c>
-      <c r="C72" s="81">
+      <c r="C79" s="81">
         <v>0</v>
       </c>
-      <c r="D72" s="81" t="s">
+      <c r="D79" s="81" t="s">
         <v>334</v>
       </c>
-      <c r="E72" s="81">
+      <c r="E79" s="81">
         <v>3.5</v>
       </c>
-      <c r="F72" s="113"/>
-      <c r="K72" s="81" t="s">
+      <c r="F79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="81" t="s">
         <v>335</v>
       </c>
-      <c r="L72" s="81">
+      <c r="N79" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="80"/>
-      <c r="B73" s="81" t="s">
+      <c r="O79" s="113"/>
+      <c r="R79" s="113"/>
+    </row>
+    <row r="80" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="80"/>
+      <c r="B80" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="C73" s="81">
+      <c r="C80" s="81">
         <v>0</v>
       </c>
-      <c r="F73" s="113"/>
-      <c r="K73" s="81" t="s">
+      <c r="F80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="L73" s="81">
+      <c r="N80" s="81">
         <v>1</v>
       </c>
-      <c r="M73" s="81" t="s">
+      <c r="O80" s="113"/>
+      <c r="P80" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="N73" s="81">
+      <c r="Q80" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C74" s="53">
-        <f>SUM(C54:C73)</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="52" t="s">
+      <c r="R80" s="113"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C81" s="53">
+        <f>SUM(C56:C80)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="52" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="53" t="s">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B84" s="53" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="53" t="s">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B85" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="C78" s="53">
+      <c r="C85" s="53">
         <v>3</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D85" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="E78" s="53">
+      <c r="E85" s="53">
         <v>3</v>
       </c>
-      <c r="F78" s="111" t="s">
+      <c r="F85" s="111" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="53" t="s">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="C79" s="53">
+      <c r="C86" s="53">
         <v>3</v>
       </c>
-      <c r="D79" s="53" t="s">
+      <c r="D86" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="E79" s="53">
+      <c r="E86" s="53">
         <v>3</v>
       </c>
-      <c r="F79" s="111" t="s">
+      <c r="F86" s="111" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="87" t="s">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B87" s="87" t="s">
         <v>350</v>
       </c>
-      <c r="C80" s="92">
+      <c r="C87" s="92">
         <v>1.5</v>
       </c>
-      <c r="G80" s="122" t="s">
+      <c r="G87" s="122" t="s">
         <v>676</v>
       </c>
-      <c r="H80" s="53">
+      <c r="H87" s="53">
         <v>1</v>
       </c>
-      <c r="K80" s="92" t="s">
+      <c r="I87" s="117" t="s">
+        <v>716</v>
+      </c>
+      <c r="M87" s="92" t="s">
         <v>589</v>
       </c>
-      <c r="L80" s="92">
+      <c r="N87" s="92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="53" t="s">
+      <c r="O87" s="144"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B88" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="C81" s="92">
+      <c r="C88" s="92">
         <v>2</v>
       </c>
-      <c r="G81" s="53" t="s">
+      <c r="G88" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="H81" s="53">
+      <c r="H88" s="53">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="53" t="s">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B89" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="C82" s="92">
+      <c r="C89" s="92">
         <v>3</v>
       </c>
-      <c r="G82" s="53" t="s">
+      <c r="G89" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="H82" s="53">
+      <c r="H89" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="53" t="s">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="C83" s="92">
+      <c r="C90" s="92">
         <v>0</v>
       </c>
-      <c r="G83" s="53" t="s">
+      <c r="G90" s="53" t="s">
         <v>353</v>
       </c>
-      <c r="H83" s="53">
+      <c r="H90" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53" t="s">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="53"/>
+      <c r="B91" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="C84" s="92">
+      <c r="C91" s="92">
         <v>1.5</v>
       </c>
-      <c r="I84" s="92" t="s">
+      <c r="J91" s="92" t="s">
         <v>562</v>
       </c>
-      <c r="J84" s="53">
+      <c r="K91" s="53">
         <v>1</v>
       </c>
-      <c r="K84" s="92" t="s">
+      <c r="M91" s="92" t="s">
         <v>585</v>
       </c>
-      <c r="L84" s="92">
+      <c r="N91" s="92">
         <v>0.5</v>
       </c>
-      <c r="M84" s="92"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53" t="s">
+      <c r="O91" s="144"/>
+      <c r="P91" s="92"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="53"/>
+      <c r="B92" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="C85" s="92">
+      <c r="C92" s="92">
         <v>4</v>
       </c>
-      <c r="I85" s="53" t="s">
+      <c r="J92" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="J85" s="53">
+      <c r="K92" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53" t="s">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="53"/>
+      <c r="B93" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="C86" s="53">
+      <c r="C93" s="53">
         <v>1.5</v>
       </c>
-      <c r="G86" s="53" t="s">
+      <c r="G93" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="H86" s="53">
+      <c r="H93" s="53">
         <v>0.5</v>
       </c>
-      <c r="I86" s="53" t="s">
+      <c r="I93" s="136" t="s">
+        <v>678</v>
+      </c>
+      <c r="J93" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="J86" s="53">
+      <c r="K93" s="53">
         <v>0.5</v>
       </c>
-      <c r="K86" s="53" t="s">
+      <c r="M93" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="L86" s="53">
+      <c r="N93" s="53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53" t="s">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="53"/>
+      <c r="B94" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="C87" s="53">
+      <c r="C94" s="53">
         <v>2</v>
       </c>
-      <c r="K87" s="53" t="s">
+      <c r="M94" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="L87" s="53">
+      <c r="N94" s="53">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="s">
+    <row r="95" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="C88" s="81">
+      <c r="C95" s="81">
         <v>0</v>
       </c>
-      <c r="F88" s="113"/>
-      <c r="K88" s="81" t="s">
+      <c r="F95" s="113"/>
+      <c r="I95" s="113"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="81" t="s">
         <v>357</v>
       </c>
-      <c r="L88" s="81">
+      <c r="N95" s="81">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="81" t="s">
+      <c r="O95" s="113"/>
+      <c r="R95" s="113"/>
+    </row>
+    <row r="96" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="81" t="s">
         <v>358</v>
       </c>
-      <c r="C89" s="81">
+      <c r="C96" s="81">
         <v>0</v>
       </c>
-      <c r="F89" s="113"/>
-      <c r="M89" s="81" t="s">
+      <c r="F96" s="113"/>
+      <c r="I96" s="113"/>
+      <c r="L96" s="113"/>
+      <c r="O96" s="113"/>
+      <c r="P96" s="81" t="s">
         <v>358</v>
       </c>
-      <c r="N89" s="81">
+      <c r="Q96" s="81">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="83" t="s">
+      <c r="R96" s="113"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="53"/>
+      <c r="B97" s="83" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="C91" s="53">
-        <f>SUM(C78:C90)</f>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="53"/>
+      <c r="C98" s="53">
+        <f>SUM(C85:C97)</f>
         <v>21.5</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
-      <c r="B94" s="55" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="53"/>
+      <c r="B101" s="55" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="B95" s="55" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="53"/>
+      <c r="B102" s="55" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="55" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="53"/>
+      <c r="B103" s="55" t="s">
         <v>642</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -14107,13 +14654,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -14165,6 +14712,9 @@
       <c r="D3" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="E3" s="148" t="s">
+        <v>678</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>367</v>
       </c>
@@ -14179,7 +14729,7 @@
       <c r="C4" s="106" t="s">
         <v>650</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="149" t="s">
         <v>483</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -14213,6 +14763,9 @@
       <c r="D6" s="2" t="s">
         <v>497</v>
       </c>
+      <c r="E6" s="148" t="s">
+        <v>717</v>
+      </c>
       <c r="G6" s="79" t="s">
         <v>369</v>
       </c>
@@ -14220,315 +14773,370 @@
         <v>370</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="134" t="s">
+        <v>718</v>
+      </c>
+      <c r="E7" s="148" t="s">
+        <v>678</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="D8" s="134" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B10" s="104" t="s">
         <v>647</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C10" s="106" t="s">
         <v>649</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="149" t="s">
         <v>367</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="89" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="89" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C11" s="106" t="s">
         <v>650</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D11" s="108" t="s">
         <v>373</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G11" s="94" t="s">
         <v>581</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H11" s="94" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="108" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="108" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="94" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="94" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="94"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="94"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>649</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="93" t="s">
-        <v>559</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="H13" s="93" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="89" t="s">
-        <v>540</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>650</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="93" t="s">
-        <v>560</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>568</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="94" t="s">
-        <v>664</v>
       </c>
       <c r="C15" s="106" t="s">
         <v>649</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="D15" s="108" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="118"/>
+      <c r="F15" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15" s="93" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="89" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>650</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="118"/>
+      <c r="F16" s="93" t="s">
+        <v>560</v>
+      </c>
+      <c r="G16" s="93" t="s">
+        <v>568</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="94" t="s">
+        <v>664</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>649</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>683</v>
+      </c>
+      <c r="G17" s="84" t="s">
         <v>511</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" s="95" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="95" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B20" s="89" t="s">
         <v>535</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>649</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G18" s="84" t="s">
-        <v>511</v>
-      </c>
-      <c r="H18" s="93" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C19" s="116" t="s">
-        <v>657</v>
-      </c>
-      <c r="D19" s="124" t="s">
-        <v>685</v>
-      </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="94" t="s">
-        <v>663</v>
       </c>
       <c r="C20" s="106" t="s">
         <v>649</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>511</v>
+      </c>
+      <c r="H20" s="93" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>657</v>
+      </c>
+      <c r="D21" s="149" t="s">
+        <v>685</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="94" t="s">
+        <v>663</v>
+      </c>
+      <c r="C22" s="106" t="s">
+        <v>649</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E22" s="116" t="s">
         <v>657</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="94" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="94" t="s">
         <v>677</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C23" s="123" t="s">
         <v>678</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D23" s="94" t="s">
         <v>684</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E23" s="148" t="s">
+        <v>717</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E24" s="116" t="s">
+      <c r="E26" s="116" t="s">
         <v>657</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C27" s="106" t="s">
         <v>649</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E27" s="148" t="s">
+        <v>717</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="2" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E28" s="116" t="s">
+        <v>657</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="94" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="94" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="E29" s="148" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C32" s="123" t="s">
         <v>681</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E30" s="116" t="s">
+      <c r="E32" s="116" t="s">
         <v>657</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="89" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C33" s="116" t="s">
         <v>657</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E31" s="116" t="s">
+      <c r="E33" s="116" t="s">
         <v>657</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="89" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="E34" s="116" t="s">
+        <v>657</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="94" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="94" t="s">
         <v>682</v>
       </c>
+      <c r="E35" s="148" t="s">
+        <v>722</v>
+      </c>
+      <c r="F35" s="89" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="94" t="s">
+        <v>721</v>
+      </c>
+      <c r="E36" s="148" t="s">
+        <v>678</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -14543,7 +15151,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F14"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -14552,7 +15160,7 @@
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" style="114" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="138" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.28515625" customWidth="1"/>
@@ -14571,7 +15179,7 @@
       <c r="D2" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="137" t="s">
         <v>648</v>
       </c>
       <c r="F2" s="54" t="s">
@@ -14606,7 +15214,7 @@
       <c r="D3" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="138"/>
       <c r="F3" s="75" t="s">
         <v>504</v>
       </c>
@@ -14631,7 +15239,7 @@
       <c r="D4" t="s">
         <v>430</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="75" t="s">
         <v>460</v>
       </c>
@@ -14656,7 +15264,7 @@
       <c r="D5" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="139" t="s">
         <v>657</v>
       </c>
       <c r="F5" s="75" t="s">
@@ -14683,7 +15291,7 @@
       <c r="D6" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="139" t="s">
         <v>657</v>
       </c>
       <c r="F6" t="s">
@@ -14709,7 +15317,7 @@
       <c r="D7" t="s">
         <v>666</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="138"/>
       <c r="F7" t="s">
         <v>438</v>
       </c>
@@ -14733,7 +15341,7 @@
       <c r="D8" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="138"/>
       <c r="F8" t="s">
         <v>502</v>
       </c>
@@ -14757,7 +15365,7 @@
       <c r="D9" s="42" t="s">
         <v>686</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="138"/>
       <c r="F9" s="77" t="s">
         <v>439</v>
       </c>
@@ -14795,6 +15403,12 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>715</v>
+      </c>
+      <c r="E12" s="138" t="s">
+        <v>678</v>
+      </c>
       <c r="F12" s="42" t="s">
         <v>691</v>
       </c>
@@ -14805,7 +15419,12 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="3"/>
+      <c r="D13" t="s">
+        <v>714</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>678</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="H13" s="77" t="s">
         <v>451</v>
@@ -14924,8 +15543,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="D12 H12:H13 F17 B11:C11 D5:D6 B7:C8 J11 J9 D3:E3 E4 E7:E18">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="H12:H13 F17 B11:C11 D5:D6 B7:C8 J11 J9 D3:E3 E4 D12:D13 E7:E18">
     <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -15037,13 +15656,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N39"/>
+  <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -15385,7 +16004,9 @@
         <v>223</v>
       </c>
       <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="H15" s="97" t="s">
+        <v>710</v>
+      </c>
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
       <c r="K15" s="67"/>
@@ -15544,7 +16165,7 @@
       <c r="E22" s="128" t="s">
         <v>693</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="135" t="s">
         <v>646</v>
       </c>
       <c r="G22" s="53"/>
@@ -15577,107 +16198,120 @@
       <c r="N23" s="53"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>249</v>
-      </c>
+      <c r="A24" s="52"/>
       <c r="B24" s="73"/>
-      <c r="C24" s="53" t="s">
-        <v>412</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="128" t="s">
-        <v>694</v>
-      </c>
-      <c r="F24" s="103" t="s">
-        <v>645</v>
-      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="53" t="s">
-        <v>413</v>
-      </c>
+      <c r="H24" s="103"/>
       <c r="I24" s="53"/>
-      <c r="J24" s="53" t="s">
-        <v>256</v>
-      </c>
+      <c r="J24" s="53"/>
       <c r="K24" s="53"/>
       <c r="L24" s="53"/>
       <c r="M24" s="53"/>
       <c r="N24" s="53"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52" t="s">
+        <v>249</v>
+      </c>
       <c r="B25" s="73"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="90" t="s">
+      <c r="C25" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="128" t="s">
+        <v>694</v>
+      </c>
+      <c r="F25" s="103" t="s">
+        <v>645</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="E25" s="129" t="s">
+      <c r="E26" s="129" t="s">
         <v>695</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F26" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="101" t="s">
+      <c r="G26" s="90"/>
+      <c r="H26" s="101" t="s">
         <v>611</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="101" t="s">
+      <c r="I26" s="90"/>
+      <c r="J26" s="101" t="s">
         <v>611</v>
       </c>
-      <c r="K25" s="90"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="53"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="90" t="s">
-        <v>579</v>
-      </c>
-      <c r="E26" s="129" t="s">
-        <v>693</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="8"/>
       <c r="K26" s="90"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="53"/>
       <c r="M26" s="90"/>
-      <c r="N26" s="8"/>
+      <c r="N26" s="53"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="56"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="90" t="s">
+        <v>579</v>
+      </c>
+      <c r="E27" s="129" t="s">
+        <v>693</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" s="90"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="130" t="s">
         <v>696</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="F27" s="130" t="s">
+      <c r="F28" s="130" t="s">
         <v>697</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31"/>
@@ -15706,8 +16340,11 @@
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39"/>
     </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="D4:F4 H4 J4 L4 N4">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"TBD"</formula>
@@ -15954,7 +16591,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -16406,7 +17043,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -16498,7 +17135,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
